--- a/AlanFigures/SFigure1_PondWaterLevel/WaterLevelRainFall.xlsx
+++ b/AlanFigures/SFigure1_PondWaterLevel/WaterLevelRainFall.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbkubow/Box Sync/Daphnia/InitialManuscript/WorkingFigures/Figure1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbkubow/Documents/GitHub/DaphniaPulex20162017Sequencing/AlanFigures/SFigure1_PondWaterLevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D38EE07-67B5-C74B-9CFF-707E4D159926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B82E8E-1855-9442-B638-B99AD451FA20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{C7F21DF0-2B2E-4F43-8AE5-66358D34F4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4529,10 +4526,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4543,16 +4537,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4563,6 +4554,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1256388384"/>
@@ -4580,18 +4573,21 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Relative Water Level</a:t>
                 </a:r>
               </a:p>
@@ -4612,14 +4608,11 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -4633,7 +4626,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4644,14 +4639,11 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4677,18 +4669,21 @@
                 <a:pPr>
                   <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Daily Rainfall (mm)</a:t>
                 </a:r>
               </a:p>
@@ -4709,14 +4704,11 @@
               <a:pPr>
                 <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -4730,7 +4722,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4741,14 +4735,11 @@
             <a:pPr>
               <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4799,12 +4790,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5393,10 +5379,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5424,3928 +5410,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Monthly Precipitation"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>43539</v>
-          </cell>
-          <cell r="L2">
-            <v>0.94659425739663261</v>
-          </cell>
-          <cell r="O2">
-            <v>0.96769628223812587</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>7</v>
-          </cell>
-          <cell r="C3">
-            <v>43540</v>
-          </cell>
-          <cell r="L3">
-            <v>0.92934769871891854</v>
-          </cell>
-          <cell r="O3">
-            <v>0.97809904456220109</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>0.6</v>
-          </cell>
-          <cell r="C4">
-            <v>43541</v>
-          </cell>
-          <cell r="L4">
-            <v>0.91196265624700412</v>
-          </cell>
-          <cell r="O4">
-            <v>0.97809904456220109</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.6</v>
-          </cell>
-          <cell r="C5">
-            <v>43542</v>
-          </cell>
-          <cell r="L5">
-            <v>0.9106012540240197</v>
-          </cell>
-          <cell r="O5">
-            <v>0.97809904456220109</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.4</v>
-          </cell>
-          <cell r="C6">
-            <v>43543</v>
-          </cell>
-          <cell r="L6">
-            <v>0.91924477330202903</v>
-          </cell>
-          <cell r="O6">
-            <v>0.97809904456220109</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>43544</v>
-          </cell>
-          <cell r="L7">
-            <v>0.92788829258003835</v>
-          </cell>
-          <cell r="O7">
-            <v>0.97286319180188774</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>43545</v>
-          </cell>
-          <cell r="L8">
-            <v>0.92788829258003835</v>
-          </cell>
-          <cell r="O8">
-            <v>0.96762733904157461</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>43546</v>
-          </cell>
-          <cell r="L9">
-            <v>0.92788829258003835</v>
-          </cell>
-          <cell r="O9">
-            <v>0.96239148628126137</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>0.4</v>
-          </cell>
-          <cell r="C10">
-            <v>43547</v>
-          </cell>
-          <cell r="L10">
-            <v>0.93600770395999755</v>
-          </cell>
-          <cell r="O10">
-            <v>0.96239148628126137</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>43548</v>
-          </cell>
-          <cell r="L11">
-            <v>0.95460501226114214</v>
-          </cell>
-          <cell r="O11">
-            <v>0.96239148628126137</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>43549</v>
-          </cell>
-          <cell r="L12">
-            <v>0.9681359442144668</v>
-          </cell>
-          <cell r="O12">
-            <v>0.96239148628126137</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>43550</v>
-          </cell>
-          <cell r="L13">
-            <v>0.97354746478783216</v>
-          </cell>
-          <cell r="O13">
-            <v>0.96239148628126137</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>43551</v>
-          </cell>
-          <cell r="L14">
-            <v>0.95900027483706862</v>
-          </cell>
-          <cell r="O14">
-            <v>0.96239148628126137</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>43552</v>
-          </cell>
-          <cell r="L15">
-            <v>0.94951946123412512</v>
-          </cell>
-          <cell r="O15">
-            <v>0.95176274347960133</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>43553</v>
-          </cell>
-          <cell r="L16">
-            <v>0.94071402244289692</v>
-          </cell>
-          <cell r="O16">
-            <v>0.9411340006779414</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>43554</v>
-          </cell>
-          <cell r="L17">
-            <v>0.94138939725461213</v>
-          </cell>
-          <cell r="O17">
-            <v>0.93050525787628136</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>0</v>
-          </cell>
-          <cell r="C18">
-            <v>43555</v>
-          </cell>
-          <cell r="L18">
-            <v>0.93513419079658011</v>
-          </cell>
-          <cell r="O18">
-            <v>0.93050525787628136</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>43556</v>
-          </cell>
-          <cell r="L19">
-            <v>0.92820360952683301</v>
-          </cell>
-          <cell r="O19">
-            <v>0.93050525787628136</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>1.6</v>
-          </cell>
-          <cell r="C20">
-            <v>43557</v>
-          </cell>
-          <cell r="L20">
-            <v>0.92127302825708568</v>
-          </cell>
-          <cell r="O20">
-            <v>0.943794059011546</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>0.2</v>
-          </cell>
-          <cell r="C21">
-            <v>43558</v>
-          </cell>
-          <cell r="L21">
-            <v>0.92895142201551451</v>
-          </cell>
-          <cell r="O21">
-            <v>0.96695897305278555</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>25.2</v>
-          </cell>
-          <cell r="C22">
-            <v>43559</v>
-          </cell>
-          <cell r="L22">
-            <v>0.93662981577394344</v>
-          </cell>
-          <cell r="O22">
-            <v>0.99012388709402499</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>10</v>
-          </cell>
-          <cell r="C23">
-            <v>43560</v>
-          </cell>
-          <cell r="L23">
-            <v>0.94430820953237238</v>
-          </cell>
-          <cell r="O23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>0.2</v>
-          </cell>
-          <cell r="C24">
-            <v>43561</v>
-          </cell>
-          <cell r="L24">
-            <v>0.94430820953237238</v>
-          </cell>
-          <cell r="O24">
-            <v>0.99311334070004154</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>43562</v>
-          </cell>
-          <cell r="L25">
-            <v>0.94430820953237238</v>
-          </cell>
-          <cell r="O25">
-            <v>0.98622668140008307</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>43563</v>
-          </cell>
-          <cell r="L26">
-            <v>0.94430820953237238</v>
-          </cell>
-          <cell r="O26">
-            <v>0.97934002210012461</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="C27">
-            <v>43564</v>
-          </cell>
-          <cell r="L27">
-            <v>0.94430820953237238</v>
-          </cell>
-          <cell r="O27">
-            <v>0.97934002210012461</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>0</v>
-          </cell>
-          <cell r="C28">
-            <v>43565</v>
-          </cell>
-          <cell r="L28">
-            <v>0.94430820953237238</v>
-          </cell>
-          <cell r="O28">
-            <v>0.97934002210012461</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>43566</v>
-          </cell>
-          <cell r="L29">
-            <v>0.94397158738646991</v>
-          </cell>
-          <cell r="O29">
-            <v>0.95924499539421137</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>43567</v>
-          </cell>
-          <cell r="L30">
-            <v>0.9469031827836949</v>
-          </cell>
-          <cell r="O30">
-            <v>0.93914996868829814</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>43568</v>
-          </cell>
-          <cell r="L31">
-            <v>0.94983477818091966</v>
-          </cell>
-          <cell r="O31">
-            <v>0.93509764080211566</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>43569</v>
-          </cell>
-          <cell r="L32">
-            <v>0.94545442924436851</v>
-          </cell>
-          <cell r="O32">
-            <v>0.94790192447272814</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>43570</v>
-          </cell>
-          <cell r="L33">
-            <v>0.93780586276469058</v>
-          </cell>
-          <cell r="O33">
-            <v>0.94953932539082164</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>1.6</v>
-          </cell>
-          <cell r="C34">
-            <v>43571</v>
-          </cell>
-          <cell r="L34">
-            <v>0.93015729628501254</v>
-          </cell>
-          <cell r="O34">
-            <v>0.92482127433838457</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>43572</v>
-          </cell>
-          <cell r="L35">
-            <v>0.93015729628501254</v>
-          </cell>
-          <cell r="O35">
-            <v>0.90334163843506599</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>0</v>
-          </cell>
-          <cell r="C36">
-            <v>43573</v>
-          </cell>
-          <cell r="L36">
-            <v>0.93015729628501254</v>
-          </cell>
-          <cell r="O36">
-            <v>0.89302888528426616</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>0</v>
-          </cell>
-          <cell r="C37">
-            <v>43574</v>
-          </cell>
-          <cell r="L37">
-            <v>0.93019138460358497</v>
-          </cell>
-          <cell r="O37">
-            <v>0.90553633019194935</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>0</v>
-          </cell>
-          <cell r="C38">
-            <v>43575</v>
-          </cell>
-          <cell r="L38">
-            <v>0.93022547292215729</v>
-          </cell>
-          <cell r="O38">
-            <v>0.91804377509963242</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>0</v>
-          </cell>
-          <cell r="C39">
-            <v>43576</v>
-          </cell>
-          <cell r="L39">
-            <v>0.93025956124072962</v>
-          </cell>
-          <cell r="O39">
-            <v>0.92364732490821932</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>0</v>
-          </cell>
-          <cell r="C40">
-            <v>43577</v>
-          </cell>
-          <cell r="L40">
-            <v>0.92336945984928709</v>
-          </cell>
-          <cell r="O40">
-            <v>0.91674342980912293</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>0</v>
-          </cell>
-          <cell r="C41">
-            <v>43578</v>
-          </cell>
-          <cell r="L41">
-            <v>0.91647935845784456</v>
-          </cell>
-          <cell r="O41">
-            <v>0.90027749636611898</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>11.2</v>
-          </cell>
-          <cell r="C42">
-            <v>43579</v>
-          </cell>
-          <cell r="L42">
-            <v>0.90958925706640192</v>
-          </cell>
-          <cell r="O42">
-            <v>0.89071545802221119</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>1.2</v>
-          </cell>
-          <cell r="C43">
-            <v>43580</v>
-          </cell>
-          <cell r="L43">
-            <v>0.9100324052078429</v>
-          </cell>
-          <cell r="O43">
-            <v>0.8811534196783033</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C44">
-            <v>43581</v>
-          </cell>
-          <cell r="L44">
-            <v>0.91047555334928387</v>
-          </cell>
-          <cell r="O44">
-            <v>0.8811534196783033</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>0.8</v>
-          </cell>
-          <cell r="C45">
-            <v>43582</v>
-          </cell>
-          <cell r="L45">
-            <v>0.91091870149072485</v>
-          </cell>
-          <cell r="O45">
-            <v>0.8811534196783033</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>0</v>
-          </cell>
-          <cell r="C46">
-            <v>43583</v>
-          </cell>
-          <cell r="L46">
-            <v>0.89070858961712429</v>
-          </cell>
-          <cell r="O46">
-            <v>0.8811534196783033</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>0</v>
-          </cell>
-          <cell r="C47">
-            <v>43584</v>
-          </cell>
-          <cell r="L47">
-            <v>0.87049847774352385</v>
-          </cell>
-          <cell r="O47">
-            <v>0.86939668957751215</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>0</v>
-          </cell>
-          <cell r="C48">
-            <v>43585</v>
-          </cell>
-          <cell r="L48">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O48">
-            <v>0.857639959476721</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>0.6</v>
-          </cell>
-          <cell r="C49">
-            <v>43586</v>
-          </cell>
-          <cell r="L49">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O49">
-            <v>0.83798348810442591</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>0</v>
-          </cell>
-          <cell r="C50">
-            <v>43587</v>
-          </cell>
-          <cell r="L50">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O50">
-            <v>0.83008374683292185</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>0</v>
-          </cell>
-          <cell r="C51">
-            <v>43588</v>
-          </cell>
-          <cell r="L51">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O51">
-            <v>0.8221840055614178</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>0.8</v>
-          </cell>
-          <cell r="C52">
-            <v>43589</v>
-          </cell>
-          <cell r="L52">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O52">
-            <v>0.8221840055614178</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>0</v>
-          </cell>
-          <cell r="C53">
-            <v>43590</v>
-          </cell>
-          <cell r="L53">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O53">
-            <v>0.8221840055614178</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>0</v>
-          </cell>
-          <cell r="C54">
-            <v>43591</v>
-          </cell>
-          <cell r="L54">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O54">
-            <v>0.8221840055614178</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>0.6</v>
-          </cell>
-          <cell r="C55">
-            <v>43592</v>
-          </cell>
-          <cell r="L55">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O55">
-            <v>0.8221840055614178</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>22.2</v>
-          </cell>
-          <cell r="C56">
-            <v>43593</v>
-          </cell>
-          <cell r="L56">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O56">
-            <v>0.8221840055614178</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>1.8</v>
-          </cell>
-          <cell r="C57">
-            <v>43594</v>
-          </cell>
-          <cell r="L57">
-            <v>0.85028836586992329</v>
-          </cell>
-          <cell r="O57">
-            <v>0.8221840055614178</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>0</v>
-          </cell>
-          <cell r="C58">
-            <v>43595</v>
-          </cell>
-          <cell r="L58">
-            <v>0.84639590599293946</v>
-          </cell>
-          <cell r="O58">
-            <v>0.77940283701253787</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>0</v>
-          </cell>
-          <cell r="C59">
-            <v>43596</v>
-          </cell>
-          <cell r="L59">
-            <v>0.84250344611595585</v>
-          </cell>
-          <cell r="O59">
-            <v>0.75328868622993705</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>0</v>
-          </cell>
-          <cell r="C60">
-            <v>43597</v>
-          </cell>
-          <cell r="L60">
-            <v>0.83861098623897201</v>
-          </cell>
-          <cell r="O60">
-            <v>0.7271745354473359</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>0</v>
-          </cell>
-          <cell r="C61">
-            <v>43598</v>
-          </cell>
-          <cell r="L61">
-            <v>0.83861098623897201</v>
-          </cell>
-          <cell r="O61">
-            <v>0.74384155321361467</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>0</v>
-          </cell>
-          <cell r="C62">
-            <v>43599</v>
-          </cell>
-          <cell r="L62">
-            <v>0.83861098623897201</v>
-          </cell>
-          <cell r="O62">
-            <v>0.74384155321361467</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>0</v>
-          </cell>
-          <cell r="C63">
-            <v>43600</v>
-          </cell>
-          <cell r="L63">
-            <v>0.83861098623897201</v>
-          </cell>
-          <cell r="O63">
-            <v>0.74384155321361467</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>0</v>
-          </cell>
-          <cell r="C64">
-            <v>43601</v>
-          </cell>
-          <cell r="L64">
-            <v>0.83666795208034628</v>
-          </cell>
-          <cell r="O64">
-            <v>0.74384155321361467</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>8.4</v>
-          </cell>
-          <cell r="C65">
-            <v>43602</v>
-          </cell>
-          <cell r="L65">
-            <v>0.83472491792172054</v>
-          </cell>
-          <cell r="O65">
-            <v>0.74384155321361467</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>1.8</v>
-          </cell>
-          <cell r="C66">
-            <v>43603</v>
-          </cell>
-          <cell r="L66">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O66">
-            <v>0.74384155321361467</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>4.8</v>
-          </cell>
-          <cell r="C67">
-            <v>43604</v>
-          </cell>
-          <cell r="L67">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O67">
-            <v>0.76591678173158484</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>2.4</v>
-          </cell>
-          <cell r="C68">
-            <v>43605</v>
-          </cell>
-          <cell r="L68">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O68">
-            <v>0.78799201024955512</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>0</v>
-          </cell>
-          <cell r="C69">
-            <v>43606</v>
-          </cell>
-          <cell r="L69">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O69">
-            <v>0.81006723876752529</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>0</v>
-          </cell>
-          <cell r="C70">
-            <v>43607</v>
-          </cell>
-          <cell r="L70">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O70">
-            <v>0.81006723876752529</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>0</v>
-          </cell>
-          <cell r="C71">
-            <v>43608</v>
-          </cell>
-          <cell r="L71">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O71">
-            <v>0.78690040963749275</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>0</v>
-          </cell>
-          <cell r="C72">
-            <v>43609</v>
-          </cell>
-          <cell r="L72">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O72">
-            <v>0.75256861284373444</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>0</v>
-          </cell>
-          <cell r="C73">
-            <v>43610</v>
-          </cell>
-          <cell r="L73">
-            <v>0.8327818837630947</v>
-          </cell>
-          <cell r="O73">
-            <v>0.71823681604997613</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>0</v>
-          </cell>
-          <cell r="C74">
-            <v>43611</v>
-          </cell>
-          <cell r="L74">
-            <v>0.81774041319303159</v>
-          </cell>
-          <cell r="O74">
-            <v>0.70707184838625026</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>0</v>
-          </cell>
-          <cell r="C75">
-            <v>43612</v>
-          </cell>
-          <cell r="L75">
-            <v>0.80269894262296848</v>
-          </cell>
-          <cell r="O75">
-            <v>0.67494623388213382</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>0</v>
-          </cell>
-          <cell r="C76">
-            <v>43613</v>
-          </cell>
-          <cell r="L76">
-            <v>0.78765747205290504</v>
-          </cell>
-          <cell r="O76">
-            <v>0.64282061937801738</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C77">
-            <v>43614</v>
-          </cell>
-          <cell r="L77">
-            <v>0.76475438301208654</v>
-          </cell>
-          <cell r="O77">
-            <v>0.61069500487390094</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>0</v>
-          </cell>
-          <cell r="C78">
-            <v>43615</v>
-          </cell>
-          <cell r="L78">
-            <v>0.74185129397126792</v>
-          </cell>
-          <cell r="O78">
-            <v>0.61069500487390094</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>0</v>
-          </cell>
-          <cell r="C79">
-            <v>43616</v>
-          </cell>
-          <cell r="L79">
-            <v>0.7189482049304492</v>
-          </cell>
-          <cell r="O79">
-            <v>0.57829553267237233</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>0</v>
-          </cell>
-          <cell r="C80">
-            <v>43617</v>
-          </cell>
-          <cell r="L80">
-            <v>0.7189482049304492</v>
-          </cell>
-          <cell r="O80">
-            <v>0.54589606047084371</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>0.2</v>
-          </cell>
-          <cell r="C81">
-            <v>43618</v>
-          </cell>
-          <cell r="L81">
-            <v>0.7189482049304492</v>
-          </cell>
-          <cell r="O81">
-            <v>0.55130810140012132</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>0</v>
-          </cell>
-          <cell r="C82">
-            <v>43619</v>
-          </cell>
-          <cell r="L82">
-            <v>0.7189482049304492</v>
-          </cell>
-          <cell r="O82">
-            <v>0.58911961453092765</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>0</v>
-          </cell>
-          <cell r="C83">
-            <v>43620</v>
-          </cell>
-          <cell r="L83">
-            <v>0.7189482049304492</v>
-          </cell>
-          <cell r="O83">
-            <v>0.61219834957647801</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>0</v>
-          </cell>
-          <cell r="C84">
-            <v>43621</v>
-          </cell>
-          <cell r="L84">
-            <v>0.7189482049304492</v>
-          </cell>
-          <cell r="O84">
-            <v>0.65704781402189694</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>3.4</v>
-          </cell>
-          <cell r="C85">
-            <v>43622</v>
-          </cell>
-          <cell r="L85">
-            <v>0.70124997603165107</v>
-          </cell>
-          <cell r="O85">
-            <v>0.70189727846731598</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>34.200000000000003</v>
-          </cell>
-          <cell r="C86">
-            <v>43623</v>
-          </cell>
-          <cell r="L86">
-            <v>0.7084830911287282</v>
-          </cell>
-          <cell r="O86">
-            <v>0.74252205703517427</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>5.4</v>
-          </cell>
-          <cell r="C87">
-            <v>43624</v>
-          </cell>
-          <cell r="L87">
-            <v>0.71571620622580534</v>
-          </cell>
-          <cell r="O87">
-            <v>0.72356459307235765</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>0</v>
-          </cell>
-          <cell r="C88">
-            <v>43625</v>
-          </cell>
-          <cell r="L88">
-            <v>0.71769972026273565</v>
-          </cell>
-          <cell r="O88">
-            <v>0.70460712910954104</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>7.4</v>
-          </cell>
-          <cell r="C89">
-            <v>43626</v>
-          </cell>
-          <cell r="L89">
-            <v>0.69475189030379081</v>
-          </cell>
-          <cell r="O89">
-            <v>0.70460712910954104</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>10.4</v>
-          </cell>
-          <cell r="C90">
-            <v>43627</v>
-          </cell>
-          <cell r="L90">
-            <v>0.67180406034484597</v>
-          </cell>
-          <cell r="O90">
-            <v>0.70323592553368719</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>3</v>
-          </cell>
-          <cell r="C91">
-            <v>43628</v>
-          </cell>
-          <cell r="L91">
-            <v>0.67180406034484597</v>
-          </cell>
-          <cell r="O91">
-            <v>0.70186472195783345</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>3</v>
-          </cell>
-          <cell r="C92">
-            <v>43629</v>
-          </cell>
-          <cell r="L92">
-            <v>0.67180406034484597</v>
-          </cell>
-          <cell r="O92">
-            <v>0.72749818545336842</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>1.4</v>
-          </cell>
-          <cell r="C93">
-            <v>43630</v>
-          </cell>
-          <cell r="L93">
-            <v>0.67180406034484597</v>
-          </cell>
-          <cell r="O93">
-            <v>0.75450285252475713</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>2.4</v>
-          </cell>
-          <cell r="C94">
-            <v>43631</v>
-          </cell>
-          <cell r="L94">
-            <v>0.67180406034484597</v>
-          </cell>
-          <cell r="O94">
-            <v>0.78150751959614595</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>0.8</v>
-          </cell>
-          <cell r="C95">
-            <v>43632</v>
-          </cell>
-          <cell r="L95">
-            <v>0.67180406034484597</v>
-          </cell>
-          <cell r="O95">
-            <v>0.78150751959614595</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>0</v>
-          </cell>
-          <cell r="C96">
-            <v>43633</v>
-          </cell>
-          <cell r="L96">
-            <v>0.67180406034484597</v>
-          </cell>
-          <cell r="O96">
-            <v>0.78150751959614595</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>1.2</v>
-          </cell>
-          <cell r="C97">
-            <v>43634</v>
-          </cell>
-          <cell r="L97">
-            <v>0.68038366402553219</v>
-          </cell>
-          <cell r="O97">
-            <v>0.76086094731782228</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>1.4</v>
-          </cell>
-          <cell r="C98">
-            <v>43635</v>
-          </cell>
-          <cell r="L98">
-            <v>0.663043362471744</v>
-          </cell>
-          <cell r="O98">
-            <v>0.74021437503949872</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>0</v>
-          </cell>
-          <cell r="C99">
-            <v>43636</v>
-          </cell>
-          <cell r="L99">
-            <v>0.64570306091795593</v>
-          </cell>
-          <cell r="O99">
-            <v>0.71956780276117505</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>0</v>
-          </cell>
-          <cell r="C100">
-            <v>43637</v>
-          </cell>
-          <cell r="L100">
-            <v>0.61978315568348152</v>
-          </cell>
-          <cell r="O100">
-            <v>0.71368656507758976</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>0</v>
-          </cell>
-          <cell r="C101">
-            <v>43638</v>
-          </cell>
-          <cell r="L101">
-            <v>0.61978315568348152</v>
-          </cell>
-          <cell r="O101">
-            <v>0.70780532739400448</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>0</v>
-          </cell>
-          <cell r="C102">
-            <v>43639</v>
-          </cell>
-          <cell r="L102">
-            <v>0.61978315568348152</v>
-          </cell>
-          <cell r="O102">
-            <v>0.70192408971041931</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>0</v>
-          </cell>
-          <cell r="C103">
-            <v>43640</v>
-          </cell>
-          <cell r="L103">
-            <v>0.61978315568348152</v>
-          </cell>
-          <cell r="O103">
-            <v>0.70192408971041931</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>9</v>
-          </cell>
-          <cell r="C104">
-            <v>43641</v>
-          </cell>
-          <cell r="L104">
-            <v>0.61978315568348152</v>
-          </cell>
-          <cell r="O104">
-            <v>0.70192408971041931</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>0</v>
-          </cell>
-          <cell r="C105">
-            <v>43642</v>
-          </cell>
-          <cell r="L105">
-            <v>0.61978315568348152</v>
-          </cell>
-          <cell r="O105">
-            <v>0.67833211086832035</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>0</v>
-          </cell>
-          <cell r="C106">
-            <v>43643</v>
-          </cell>
-          <cell r="L106">
-            <v>0.60522957417298551</v>
-          </cell>
-          <cell r="O106">
-            <v>0.65474013202622128</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>0</v>
-          </cell>
-          <cell r="C107">
-            <v>43644</v>
-          </cell>
-          <cell r="L107">
-            <v>0.59779619020429553</v>
-          </cell>
-          <cell r="O107">
-            <v>0.63114815318412232</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>0</v>
-          </cell>
-          <cell r="C108">
-            <v>43645</v>
-          </cell>
-          <cell r="L108">
-            <v>0.59036280623560577</v>
-          </cell>
-          <cell r="O108">
-            <v>0.63114815318412232</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>0</v>
-          </cell>
-          <cell r="C109">
-            <v>43646</v>
-          </cell>
-          <cell r="L109">
-            <v>0.59748300377741181</v>
-          </cell>
-          <cell r="O109">
-            <v>0.63114815318412232</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>0</v>
-          </cell>
-          <cell r="C110">
-            <v>43647</v>
-          </cell>
-          <cell r="L110">
-            <v>0.59748300377741181</v>
-          </cell>
-          <cell r="O110">
-            <v>0.63114815318412232</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>0</v>
-          </cell>
-          <cell r="C111">
-            <v>43648</v>
-          </cell>
-          <cell r="L111">
-            <v>0.59748300377741181</v>
-          </cell>
-          <cell r="O111">
-            <v>0.63114815318412232</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>0</v>
-          </cell>
-          <cell r="C112">
-            <v>43649</v>
-          </cell>
-          <cell r="L112">
-            <v>0.59748300377741181</v>
-          </cell>
-          <cell r="O112">
-            <v>0.58534688960853665</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>0</v>
-          </cell>
-          <cell r="C113">
-            <v>43650</v>
-          </cell>
-          <cell r="L113">
-            <v>0.56390387946370546</v>
-          </cell>
-          <cell r="O113">
-            <v>0.53954562603295086</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>0</v>
-          </cell>
-          <cell r="C114">
-            <v>43651</v>
-          </cell>
-          <cell r="L114">
-            <v>0.53032475514999933</v>
-          </cell>
-          <cell r="O114">
-            <v>0.49374436245736519</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>0</v>
-          </cell>
-          <cell r="C115">
-            <v>43652</v>
-          </cell>
-          <cell r="L115">
-            <v>0.49674563083629314</v>
-          </cell>
-          <cell r="O115">
-            <v>0.49374436245736519</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>0</v>
-          </cell>
-          <cell r="C116">
-            <v>43653</v>
-          </cell>
-          <cell r="L116">
-            <v>0.49674563083629314</v>
-          </cell>
-          <cell r="O116">
-            <v>0.49374436245736519</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>0</v>
-          </cell>
-          <cell r="C117">
-            <v>43654</v>
-          </cell>
-          <cell r="L117">
-            <v>0.49674563083629314</v>
-          </cell>
-          <cell r="O117">
-            <v>0.46379811899978729</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>0</v>
-          </cell>
-          <cell r="C118">
-            <v>43655</v>
-          </cell>
-          <cell r="L118">
-            <v>0.49674563083629314</v>
-          </cell>
-          <cell r="O118">
-            <v>0.43385187554220939</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>0</v>
-          </cell>
-          <cell r="C119">
-            <v>43656</v>
-          </cell>
-          <cell r="L119">
-            <v>0.46301523960892171</v>
-          </cell>
-          <cell r="O119">
-            <v>0.34001635485829296</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>0</v>
-          </cell>
-          <cell r="C120">
-            <v>43657</v>
-          </cell>
-          <cell r="L120">
-            <v>0.42928484838155051</v>
-          </cell>
-          <cell r="O120">
-            <v>0.27612707763195427</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>0</v>
-          </cell>
-          <cell r="C121">
-            <v>43658</v>
-          </cell>
-          <cell r="L121">
-            <v>0.39555445715417931</v>
-          </cell>
-          <cell r="O121">
-            <v>0.18731100467473175</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>0</v>
-          </cell>
-          <cell r="C122">
-            <v>43659</v>
-          </cell>
-          <cell r="L122">
-            <v>0.39555445715417931</v>
-          </cell>
-          <cell r="O122">
-            <v>0.16238420894384775</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>0</v>
-          </cell>
-          <cell r="C123">
-            <v>43660</v>
-          </cell>
-          <cell r="L123">
-            <v>0.39555445715417931</v>
-          </cell>
-          <cell r="O123">
-            <v>0.13745741321296359</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>0</v>
-          </cell>
-          <cell r="C124">
-            <v>43661</v>
-          </cell>
-          <cell r="L124">
-            <v>0.3807579963738551</v>
-          </cell>
-          <cell r="O124">
-            <v>9.5880835514938714E-2</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>0</v>
-          </cell>
-          <cell r="C125">
-            <v>43662</v>
-          </cell>
-          <cell r="L125">
-            <v>0.34900472762368207</v>
-          </cell>
-          <cell r="O125">
-            <v>4.0371986847170256E-2</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>0</v>
-          </cell>
-          <cell r="C126">
-            <v>43663</v>
-          </cell>
-          <cell r="L126">
-            <v>0.31725145887350886</v>
-          </cell>
-          <cell r="O126">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>1.6</v>
-          </cell>
-          <cell r="C127">
-            <v>43664</v>
-          </cell>
-          <cell r="L127">
-            <v>0.28310348574362598</v>
-          </cell>
-          <cell r="O127">
-            <v>3.6624158079089114E-2</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>13.6</v>
-          </cell>
-          <cell r="C128">
-            <v>43665</v>
-          </cell>
-          <cell r="L128">
-            <v>0.2659123205835921</v>
-          </cell>
-          <cell r="O128">
-            <v>8.7180587127921969E-2</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>9</v>
-          </cell>
-          <cell r="C129">
-            <v>43666</v>
-          </cell>
-          <cell r="L129">
-            <v>0.24872115542355797</v>
-          </cell>
-          <cell r="O129">
-            <v>0.12260015435615662</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>0</v>
-          </cell>
-          <cell r="C130">
-            <v>43667</v>
-          </cell>
-          <cell r="L130">
-            <v>0.24872115542355797</v>
-          </cell>
-          <cell r="O130">
-            <v>0.12260015435615662</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>0</v>
-          </cell>
-          <cell r="C131">
-            <v>43668</v>
-          </cell>
-          <cell r="L131">
-            <v>0.24872115542355797</v>
-          </cell>
-          <cell r="O131">
-            <v>0.12260015435615662</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>0.2</v>
-          </cell>
-          <cell r="C132">
-            <v>43669</v>
-          </cell>
-          <cell r="L132">
-            <v>0.29824509074949557</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>0</v>
-          </cell>
-          <cell r="C133">
-            <v>43670</v>
-          </cell>
-          <cell r="L133">
-            <v>0.34776902607543309</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>0</v>
-          </cell>
-          <cell r="C134">
-            <v>43671</v>
-          </cell>
-          <cell r="L134">
-            <v>0.39729296140137071</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>0.4</v>
-          </cell>
-          <cell r="C135">
-            <v>43672</v>
-          </cell>
-          <cell r="L135">
-            <v>0.35048330844175896</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>0</v>
-          </cell>
-          <cell r="C136">
-            <v>43673</v>
-          </cell>
-          <cell r="L136">
-            <v>0.30367365548214731</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>0</v>
-          </cell>
-          <cell r="C137">
-            <v>43674</v>
-          </cell>
-          <cell r="L137">
-            <v>0.25686400252253555</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>0</v>
-          </cell>
-          <cell r="C138">
-            <v>43675</v>
-          </cell>
-          <cell r="L138">
-            <v>0.25686400252253555</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>12</v>
-          </cell>
-          <cell r="C139">
-            <v>43676</v>
-          </cell>
-          <cell r="L139">
-            <v>0.25686400252253555</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>0.8</v>
-          </cell>
-          <cell r="C140">
-            <v>43677</v>
-          </cell>
-          <cell r="L140">
-            <v>0.25686400252253555</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>0</v>
-          </cell>
-          <cell r="C141">
-            <v>43678</v>
-          </cell>
-          <cell r="L141">
-            <v>0.25686400252253555</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>0</v>
-          </cell>
-          <cell r="C142">
-            <v>43679</v>
-          </cell>
-          <cell r="L142">
-            <v>0.2300727146445547</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>0</v>
-          </cell>
-          <cell r="C143">
-            <v>43680</v>
-          </cell>
-          <cell r="L143">
-            <v>0.20328142676657385</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>0</v>
-          </cell>
-          <cell r="C144">
-            <v>43681</v>
-          </cell>
-          <cell r="L144">
-            <v>0.17649013888859302</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>0.2</v>
-          </cell>
-          <cell r="C145">
-            <v>43682</v>
-          </cell>
-          <cell r="L145">
-            <v>0.17649013888859302</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>0</v>
-          </cell>
-          <cell r="C146">
-            <v>43683</v>
-          </cell>
-          <cell r="L146">
-            <v>0.17637509081341121</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>0</v>
-          </cell>
-          <cell r="C147">
-            <v>43684</v>
-          </cell>
-          <cell r="L147">
-            <v>0.17626004273822943</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>6.8</v>
-          </cell>
-          <cell r="C148">
-            <v>43685</v>
-          </cell>
-          <cell r="L148">
-            <v>0.17614499466304764</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>7.6</v>
-          </cell>
-          <cell r="C149">
-            <v>43686</v>
-          </cell>
-          <cell r="L149">
-            <v>0.24673764138662763</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>0.8</v>
-          </cell>
-          <cell r="C150">
-            <v>43687</v>
-          </cell>
-          <cell r="L150">
-            <v>0.31733028811020764</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>0.8</v>
-          </cell>
-          <cell r="C151">
-            <v>43688</v>
-          </cell>
-          <cell r="L151">
-            <v>0.38792293483378737</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>0.2</v>
-          </cell>
-          <cell r="C152">
-            <v>43689</v>
-          </cell>
-          <cell r="L152">
-            <v>0.38792293483378737</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>0.6</v>
-          </cell>
-          <cell r="C153">
-            <v>43690</v>
-          </cell>
-          <cell r="L153">
-            <v>0.38792293483378737</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>10.6</v>
-          </cell>
-          <cell r="C154">
-            <v>43691</v>
-          </cell>
-          <cell r="L154">
-            <v>0.36482383796117762</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>0</v>
-          </cell>
-          <cell r="C155">
-            <v>43692</v>
-          </cell>
-          <cell r="L155">
-            <v>0.36923188365656867</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>27.8</v>
-          </cell>
-          <cell r="C156">
-            <v>43693</v>
-          </cell>
-          <cell r="L156">
-            <v>0.37363992935195978</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>0</v>
-          </cell>
-          <cell r="C157">
-            <v>43694</v>
-          </cell>
-          <cell r="L157">
-            <v>0.40114707191996063</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C158">
-            <v>43695</v>
-          </cell>
-          <cell r="L158">
-            <v>0.40114707191996063</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>0</v>
-          </cell>
-          <cell r="C159">
-            <v>43696</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>0</v>
-          </cell>
-          <cell r="C160">
-            <v>43697</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>0</v>
-          </cell>
-          <cell r="C161">
-            <v>43698</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>0</v>
-          </cell>
-          <cell r="C162">
-            <v>43699</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>0</v>
-          </cell>
-          <cell r="C163">
-            <v>43700</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>0</v>
-          </cell>
-          <cell r="C164">
-            <v>43701</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>0</v>
-          </cell>
-          <cell r="C165">
-            <v>43702</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>0.2</v>
-          </cell>
-          <cell r="C166">
-            <v>43703</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>0.2</v>
-          </cell>
-          <cell r="C167">
-            <v>43704</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>1.2</v>
-          </cell>
-          <cell r="C168">
-            <v>43705</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>0</v>
-          </cell>
-          <cell r="C169">
-            <v>43706</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>0</v>
-          </cell>
-          <cell r="C170">
-            <v>43707</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>1</v>
-          </cell>
-          <cell r="C171">
-            <v>43708</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>0</v>
-          </cell>
-          <cell r="C172">
-            <v>43709</v>
-          </cell>
-          <cell r="L172">
-            <v>4.5009363635007869E-2</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>0</v>
-          </cell>
-          <cell r="C173">
-            <v>43710</v>
-          </cell>
-          <cell r="L173">
-            <v>4.5009363635007869E-2</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>0</v>
-          </cell>
-          <cell r="C174">
-            <v>43711</v>
-          </cell>
-          <cell r="L174">
-            <v>4.5009363635007869E-2</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>5.2</v>
-          </cell>
-          <cell r="C175">
-            <v>43712</v>
-          </cell>
-          <cell r="L175">
-            <v>4.5009363635007869E-2</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>0</v>
-          </cell>
-          <cell r="C176">
-            <v>43713</v>
-          </cell>
-          <cell r="L176">
-            <v>3.0006242423338641E-2</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>0</v>
-          </cell>
-          <cell r="C177">
-            <v>43714</v>
-          </cell>
-          <cell r="L177">
-            <v>1.5003121211669228E-2</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>0</v>
-          </cell>
-          <cell r="C178">
-            <v>43715</v>
-          </cell>
-          <cell r="L178">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>0</v>
-          </cell>
-          <cell r="C179">
-            <v>43716</v>
-          </cell>
-          <cell r="L179">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>13</v>
-          </cell>
-          <cell r="C180">
-            <v>43717</v>
-          </cell>
-          <cell r="L180">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>0.2</v>
-          </cell>
-          <cell r="C181">
-            <v>43718</v>
-          </cell>
-          <cell r="L181">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>0.2</v>
-          </cell>
-          <cell r="C182">
-            <v>43719</v>
-          </cell>
-          <cell r="L182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>0.6</v>
-          </cell>
-          <cell r="C183">
-            <v>43720</v>
-          </cell>
-          <cell r="L183">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>0.6</v>
-          </cell>
-          <cell r="C184">
-            <v>43721</v>
-          </cell>
-          <cell r="L184">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>0</v>
-          </cell>
-          <cell r="C185">
-            <v>43722</v>
-          </cell>
-          <cell r="L185">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>0.4</v>
-          </cell>
-          <cell r="C186">
-            <v>43723</v>
-          </cell>
-          <cell r="L186">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>0</v>
-          </cell>
-          <cell r="C187">
-            <v>43724</v>
-          </cell>
-          <cell r="L187">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>0</v>
-          </cell>
-          <cell r="C188">
-            <v>43725</v>
-          </cell>
-          <cell r="L188">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>0</v>
-          </cell>
-          <cell r="C189">
-            <v>43726</v>
-          </cell>
-          <cell r="L189">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>0</v>
-          </cell>
-          <cell r="C190">
-            <v>43727</v>
-          </cell>
-          <cell r="L190">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>0</v>
-          </cell>
-          <cell r="C191">
-            <v>43728</v>
-          </cell>
-          <cell r="L191">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>0</v>
-          </cell>
-          <cell r="C192">
-            <v>43729</v>
-          </cell>
-          <cell r="L192">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>13</v>
-          </cell>
-          <cell r="C193">
-            <v>43730</v>
-          </cell>
-          <cell r="L193">
-            <v>4.2365388425737519E-2</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>25.8</v>
-          </cell>
-          <cell r="C194">
-            <v>43731</v>
-          </cell>
-          <cell r="L194">
-            <v>8.4730776851475037E-2</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>32.200000000000003</v>
-          </cell>
-          <cell r="C195">
-            <v>43732</v>
-          </cell>
-          <cell r="L195">
-            <v>0.14664155493865161</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>7.6</v>
-          </cell>
-          <cell r="C196">
-            <v>43733</v>
-          </cell>
-          <cell r="L196">
-            <v>0.17912985305804185</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>5.8</v>
-          </cell>
-          <cell r="C197">
-            <v>43734</v>
-          </cell>
-          <cell r="L197">
-            <v>0.21161815117743174</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>11.6</v>
-          </cell>
-          <cell r="C198">
-            <v>43735</v>
-          </cell>
-          <cell r="L198">
-            <v>0.30807957065762759</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>17.399999999999999</v>
-          </cell>
-          <cell r="C199">
-            <v>43736</v>
-          </cell>
-          <cell r="L199">
-            <v>0.39159808167987242</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>15.8</v>
-          </cell>
-          <cell r="C200">
-            <v>43737</v>
-          </cell>
-          <cell r="L200">
-            <v>0.48752687118237464</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>9.6</v>
-          </cell>
-          <cell r="C201">
-            <v>43738</v>
-          </cell>
-          <cell r="L201">
-            <v>0.4999371496626322</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>7.2</v>
-          </cell>
-          <cell r="C202">
-            <v>43739</v>
-          </cell>
-          <cell r="L202">
-            <v>0.51234742814288969</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>0</v>
-          </cell>
-          <cell r="C203">
-            <v>43740</v>
-          </cell>
-          <cell r="L203">
-            <v>0.52358805119213248</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>13</v>
-          </cell>
-          <cell r="C204">
-            <v>43741</v>
-          </cell>
-          <cell r="L204">
-            <v>0.53482867424137515</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>0.2</v>
-          </cell>
-          <cell r="C205">
-            <v>43742</v>
-          </cell>
-          <cell r="L205">
-            <v>0.54606929729061793</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>2.4</v>
-          </cell>
-          <cell r="C206">
-            <v>43743</v>
-          </cell>
-          <cell r="L206">
-            <v>0.54606929729061793</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>5.6</v>
-          </cell>
-          <cell r="C207">
-            <v>43744</v>
-          </cell>
-          <cell r="L207">
-            <v>0.54606929729061793</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>10</v>
-          </cell>
-          <cell r="C208">
-            <v>43745</v>
-          </cell>
-          <cell r="L208">
-            <v>0.54606929729061793</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>1.2</v>
-          </cell>
-          <cell r="C209">
-            <v>43746</v>
-          </cell>
-          <cell r="L209">
-            <v>0.55860953748543263</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="C210">
-            <v>43747</v>
-          </cell>
-          <cell r="L210">
-            <v>0.57114977768024733</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>0.2</v>
-          </cell>
-          <cell r="C211">
-            <v>43748</v>
-          </cell>
-          <cell r="L211">
-            <v>0.59706116083507865</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>19.600000000000001</v>
-          </cell>
-          <cell r="C212">
-            <v>43749</v>
-          </cell>
-          <cell r="L212">
-            <v>0.6452663043362471</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>26.6</v>
-          </cell>
-          <cell r="C213">
-            <v>43750</v>
-          </cell>
-          <cell r="L213">
-            <v>0.69347144783741577</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>7.8</v>
-          </cell>
-          <cell r="C214">
-            <v>43751</v>
-          </cell>
-          <cell r="L214">
-            <v>0.7370895819706883</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>11</v>
-          </cell>
-          <cell r="C215">
-            <v>43752</v>
-          </cell>
-          <cell r="L215">
-            <v>0.75776414718483753</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>0.4</v>
-          </cell>
-          <cell r="C216">
-            <v>43753</v>
-          </cell>
-          <cell r="L216">
-            <v>0.77843871239898677</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>9.8000000000000007</v>
-          </cell>
-          <cell r="C217">
-            <v>43754</v>
-          </cell>
-          <cell r="L217">
-            <v>0.79600484906331703</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>14.4</v>
-          </cell>
-          <cell r="C218">
-            <v>43755</v>
-          </cell>
-          <cell r="L218">
-            <v>0.80168055410561856</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>8.4</v>
-          </cell>
-          <cell r="C219">
-            <v>43756</v>
-          </cell>
-          <cell r="L219">
-            <v>0.82492026529233942</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>1.8</v>
-          </cell>
-          <cell r="C220">
-            <v>43757</v>
-          </cell>
-          <cell r="L220">
-            <v>0.84248427143675875</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>0</v>
-          </cell>
-          <cell r="C221">
-            <v>43758</v>
-          </cell>
-          <cell r="L221">
-            <v>0.8600482775811783</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>0</v>
-          </cell>
-          <cell r="C222">
-            <v>43759</v>
-          </cell>
-          <cell r="L222">
-            <v>0.8600482775811783</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>0</v>
-          </cell>
-          <cell r="C223">
-            <v>43760</v>
-          </cell>
-          <cell r="L223">
-            <v>0.8377076457968039</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>0.2</v>
-          </cell>
-          <cell r="C224">
-            <v>43761</v>
-          </cell>
-          <cell r="L224">
-            <v>0.81536701401242961</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>1.6</v>
-          </cell>
-          <cell r="C225">
-            <v>43762</v>
-          </cell>
-          <cell r="L225">
-            <v>0.8170266890229223</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>6.8</v>
-          </cell>
-          <cell r="C226">
-            <v>43763</v>
-          </cell>
-          <cell r="L226">
-            <v>0.83049157485901293</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>17.600000000000001</v>
-          </cell>
-          <cell r="C227">
-            <v>43764</v>
-          </cell>
-          <cell r="L227">
-            <v>0.84395646069510344</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>0</v>
-          </cell>
-          <cell r="C228">
-            <v>43765</v>
-          </cell>
-          <cell r="L228">
-            <v>0.83342103973632686</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>0.2</v>
-          </cell>
-          <cell r="C229">
-            <v>43766</v>
-          </cell>
-          <cell r="L229">
-            <v>0.84107386725582656</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>2</v>
-          </cell>
-          <cell r="C230">
-            <v>43767</v>
-          </cell>
-          <cell r="L230">
-            <v>0.84872669477532603</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>13.8</v>
-          </cell>
-          <cell r="C231">
-            <v>43768</v>
-          </cell>
-          <cell r="L231">
-            <v>0.85637952229482572</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>8.4</v>
-          </cell>
-          <cell r="C232">
-            <v>43769</v>
-          </cell>
-          <cell r="L232">
-            <v>0.85637952229482572</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>9</v>
-          </cell>
-          <cell r="C233">
-            <v>43770</v>
-          </cell>
-          <cell r="L233">
-            <v>0.85637952229482572</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>20.8</v>
-          </cell>
-          <cell r="C234">
-            <v>43771</v>
-          </cell>
-          <cell r="L234">
-            <v>0.86690002961422674</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="C235">
-            <v>43772</v>
-          </cell>
-          <cell r="L235">
-            <v>0.87742053693362798</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>22.2</v>
-          </cell>
-          <cell r="C236">
-            <v>43773</v>
-          </cell>
-          <cell r="L236">
-            <v>0.89365722917363533</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>1.4</v>
-          </cell>
-          <cell r="C237">
-            <v>43774</v>
-          </cell>
-          <cell r="L237">
-            <v>0.89993161031086422</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>12.6</v>
-          </cell>
-          <cell r="C238">
-            <v>43775</v>
-          </cell>
-          <cell r="L238">
-            <v>0.90620599144809311</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>0</v>
-          </cell>
-          <cell r="C239">
-            <v>43776</v>
-          </cell>
-          <cell r="L239">
-            <v>0.90676418766471578</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>0.2</v>
-          </cell>
-          <cell r="C240">
-            <v>43777</v>
-          </cell>
-          <cell r="L240">
-            <v>0.90676418766471578</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>15.8</v>
-          </cell>
-          <cell r="C241">
-            <v>43778</v>
-          </cell>
-          <cell r="L241">
-            <v>0.92138594581235655</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>0.6</v>
-          </cell>
-          <cell r="C242">
-            <v>43779</v>
-          </cell>
-          <cell r="L242">
-            <v>0.93600770395999733</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>8.1999999999999993</v>
-          </cell>
-          <cell r="C243">
-            <v>43780</v>
-          </cell>
-          <cell r="L243">
-            <v>0.9644863636073111</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>1.6</v>
-          </cell>
-          <cell r="C244">
-            <v>43781</v>
-          </cell>
-          <cell r="L244">
-            <v>0.97400126552882715</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>9</v>
-          </cell>
-          <cell r="C245">
-            <v>43782</v>
-          </cell>
-          <cell r="L245">
-            <v>0.98351616745034298</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>0.4</v>
-          </cell>
-          <cell r="C246">
-            <v>43783</v>
-          </cell>
-          <cell r="L246">
-            <v>0.97917416787218592</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>1.4</v>
-          </cell>
-          <cell r="C247">
-            <v>43784</v>
-          </cell>
-          <cell r="L247">
-            <v>0.97917416787218592</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>3</v>
-          </cell>
-          <cell r="C248">
-            <v>43785</v>
-          </cell>
-          <cell r="L248">
-            <v>0.97917416787218592</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>0</v>
-          </cell>
-          <cell r="C249">
-            <v>43786</v>
-          </cell>
-          <cell r="L249">
-            <v>0.97917416787218592</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>0.2</v>
-          </cell>
-          <cell r="C250">
-            <v>43787</v>
-          </cell>
-          <cell r="L250">
-            <v>0.97544575802833178</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>0.2</v>
-          </cell>
-          <cell r="C251">
-            <v>43788</v>
-          </cell>
-          <cell r="L251">
-            <v>0.97171734818447753</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>0</v>
-          </cell>
-          <cell r="C252">
-            <v>43789</v>
-          </cell>
-          <cell r="L252">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>7.2</v>
-          </cell>
-          <cell r="C253">
-            <v>43790</v>
-          </cell>
-          <cell r="L253">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>16.2</v>
-          </cell>
-          <cell r="C254">
-            <v>43791</v>
-          </cell>
-          <cell r="L254">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>11.2</v>
-          </cell>
-          <cell r="C255">
-            <v>43792</v>
-          </cell>
-          <cell r="L255">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>0.2</v>
-          </cell>
-          <cell r="C256">
-            <v>43793</v>
-          </cell>
-          <cell r="L256">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>8</v>
-          </cell>
-          <cell r="C257">
-            <v>43794</v>
-          </cell>
-          <cell r="L257">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>5.2</v>
-          </cell>
-          <cell r="C258">
-            <v>43795</v>
-          </cell>
-          <cell r="L258">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>7.8</v>
-          </cell>
-          <cell r="C259">
-            <v>43796</v>
-          </cell>
-          <cell r="L259">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>0</v>
-          </cell>
-          <cell r="C260">
-            <v>43797</v>
-          </cell>
-          <cell r="L260">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>0.8</v>
-          </cell>
-          <cell r="C261">
-            <v>43798</v>
-          </cell>
-          <cell r="L261">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>0</v>
-          </cell>
-          <cell r="C262">
-            <v>43799</v>
-          </cell>
-          <cell r="L262">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>0</v>
-          </cell>
-          <cell r="C263">
-            <v>43800</v>
-          </cell>
-          <cell r="L263">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>0</v>
-          </cell>
-          <cell r="C264">
-            <v>43801</v>
-          </cell>
-          <cell r="L264">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>0</v>
-          </cell>
-          <cell r="C265">
-            <v>43802</v>
-          </cell>
-          <cell r="L265">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>0</v>
-          </cell>
-          <cell r="C266">
-            <v>43803</v>
-          </cell>
-          <cell r="L266">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>0.2</v>
-          </cell>
-          <cell r="C267">
-            <v>43804</v>
-          </cell>
-          <cell r="L267">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>3.6</v>
-          </cell>
-          <cell r="C268">
-            <v>43805</v>
-          </cell>
-          <cell r="L268">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>0</v>
-          </cell>
-          <cell r="C269">
-            <v>43806</v>
-          </cell>
-          <cell r="L269">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>16.600000000000001</v>
-          </cell>
-          <cell r="C270">
-            <v>43807</v>
-          </cell>
-          <cell r="L270">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>0.6</v>
-          </cell>
-          <cell r="C271">
-            <v>43808</v>
-          </cell>
-          <cell r="L271">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>17.399999999999999</v>
-          </cell>
-          <cell r="C272">
-            <v>43809</v>
-          </cell>
-          <cell r="L272">
-            <v>0.96798893834062327</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>1.6</v>
-          </cell>
-          <cell r="C273">
-            <v>43810</v>
-          </cell>
-          <cell r="L273">
-            <v>0.97083957398123866</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>21.6</v>
-          </cell>
-          <cell r="C274">
-            <v>43811</v>
-          </cell>
-          <cell r="L274">
-            <v>0.97369020962185404</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275">
-            <v>6</v>
-          </cell>
-          <cell r="C275">
-            <v>43812</v>
-          </cell>
-          <cell r="L275">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276">
-            <v>12.2</v>
-          </cell>
-          <cell r="C276">
-            <v>43813</v>
-          </cell>
-          <cell r="L276">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277">
-            <v>10.4</v>
-          </cell>
-          <cell r="C277">
-            <v>43814</v>
-          </cell>
-          <cell r="L277">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278">
-            <v>3.2</v>
-          </cell>
-          <cell r="C278">
-            <v>43815</v>
-          </cell>
-          <cell r="L278">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279">
-            <v>3.6</v>
-          </cell>
-          <cell r="C279">
-            <v>43816</v>
-          </cell>
-          <cell r="L279">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280">
-            <v>12.4</v>
-          </cell>
-          <cell r="C280">
-            <v>43817</v>
-          </cell>
-          <cell r="L280">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281">
-            <v>17.2</v>
-          </cell>
-          <cell r="C281">
-            <v>43818</v>
-          </cell>
-          <cell r="L281">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282">
-            <v>7.2</v>
-          </cell>
-          <cell r="C282">
-            <v>43819</v>
-          </cell>
-          <cell r="L282">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283">
-            <v>26.6</v>
-          </cell>
-          <cell r="C283">
-            <v>43820</v>
-          </cell>
-          <cell r="L283">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284">
-            <v>1</v>
-          </cell>
-          <cell r="C284">
-            <v>43821</v>
-          </cell>
-          <cell r="L284">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285">
-            <v>0.8</v>
-          </cell>
-          <cell r="C285">
-            <v>43822</v>
-          </cell>
-          <cell r="L285">
-            <v>0.97654084526246954</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="C286">
-            <v>43823</v>
-          </cell>
-          <cell r="L286">
-            <v>0.97219671516440165</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287">
-            <v>0</v>
-          </cell>
-          <cell r="C287">
-            <v>43824</v>
-          </cell>
-          <cell r="L287">
-            <v>0.96785258506633376</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288">
-            <v>20.8</v>
-          </cell>
-          <cell r="C288">
-            <v>43825</v>
-          </cell>
-          <cell r="L288">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289">
-            <v>0.8</v>
-          </cell>
-          <cell r="C289">
-            <v>43826</v>
-          </cell>
-          <cell r="L289">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290">
-            <v>0.8</v>
-          </cell>
-          <cell r="C290">
-            <v>43827</v>
-          </cell>
-          <cell r="L290">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291">
-            <v>0</v>
-          </cell>
-          <cell r="C291">
-            <v>43828</v>
-          </cell>
-          <cell r="L291">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292">
-            <v>0.2</v>
-          </cell>
-          <cell r="C292">
-            <v>43829</v>
-          </cell>
-          <cell r="L292">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293">
-            <v>0</v>
-          </cell>
-          <cell r="C293">
-            <v>43830</v>
-          </cell>
-          <cell r="L293">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294">
-            <v>1</v>
-          </cell>
-          <cell r="C294">
-            <v>43831</v>
-          </cell>
-          <cell r="L294">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295">
-            <v>0.6</v>
-          </cell>
-          <cell r="C295">
-            <v>43832</v>
-          </cell>
-          <cell r="L295">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296">
-            <v>1</v>
-          </cell>
-          <cell r="C296">
-            <v>43833</v>
-          </cell>
-          <cell r="L296">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297">
-            <v>0</v>
-          </cell>
-          <cell r="C297">
-            <v>43834</v>
-          </cell>
-          <cell r="L297">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="A298">
-            <v>0</v>
-          </cell>
-          <cell r="C298">
-            <v>43835</v>
-          </cell>
-          <cell r="L298">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="A299">
-            <v>6.2</v>
-          </cell>
-          <cell r="C299">
-            <v>43836</v>
-          </cell>
-          <cell r="L299">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="A300">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="C300">
-            <v>43837</v>
-          </cell>
-          <cell r="L300">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="A301">
-            <v>5</v>
-          </cell>
-          <cell r="C301">
-            <v>43838</v>
-          </cell>
-          <cell r="L301">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="A302">
-            <v>9</v>
-          </cell>
-          <cell r="C302">
-            <v>43839</v>
-          </cell>
-          <cell r="L302">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303">
-            <v>0</v>
-          </cell>
-          <cell r="C303">
-            <v>43840</v>
-          </cell>
-          <cell r="L303">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>0</v>
-          </cell>
-          <cell r="C304">
-            <v>43841</v>
-          </cell>
-          <cell r="L304">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="A305">
-            <v>5.6</v>
-          </cell>
-          <cell r="C305">
-            <v>43842</v>
-          </cell>
-          <cell r="L305">
-            <v>0.96350845496826598</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="A306">
-            <v>17.8</v>
-          </cell>
-          <cell r="C306">
-            <v>43843</v>
-          </cell>
-          <cell r="L306">
-            <v>0.97226063076172498</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="A307">
-            <v>25.2</v>
-          </cell>
-          <cell r="C307">
-            <v>43844</v>
-          </cell>
-          <cell r="L307">
-            <v>0.98101280655518375</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="A308">
-            <v>11</v>
-          </cell>
-          <cell r="C308">
-            <v>43845</v>
-          </cell>
-          <cell r="L308">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="A309">
-            <v>12.4</v>
-          </cell>
-          <cell r="C309">
-            <v>43846</v>
-          </cell>
-          <cell r="L309">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="A310">
-            <v>5.6</v>
-          </cell>
-          <cell r="C310">
-            <v>43847</v>
-          </cell>
-          <cell r="L310">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="A311">
-            <v>0.2</v>
-          </cell>
-          <cell r="C311">
-            <v>43848</v>
-          </cell>
-          <cell r="L311">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="A312">
-            <v>0.2</v>
-          </cell>
-          <cell r="C312">
-            <v>43849</v>
-          </cell>
-          <cell r="L312">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="A313">
-            <v>0</v>
-          </cell>
-          <cell r="C313">
-            <v>43850</v>
-          </cell>
-          <cell r="L313">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="A314">
-            <v>0.2</v>
-          </cell>
-          <cell r="C314">
-            <v>43851</v>
-          </cell>
-          <cell r="L314">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="A315">
-            <v>0.4</v>
-          </cell>
-          <cell r="C315">
-            <v>43852</v>
-          </cell>
-          <cell r="L315">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="A316">
-            <v>0</v>
-          </cell>
-          <cell r="C316">
-            <v>43853</v>
-          </cell>
-          <cell r="L316">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="A317">
-            <v>0</v>
-          </cell>
-          <cell r="C317">
-            <v>43854</v>
-          </cell>
-          <cell r="L317">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="A318">
-            <v>0</v>
-          </cell>
-          <cell r="C318">
-            <v>43855</v>
-          </cell>
-          <cell r="L318">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="A319">
-            <v>11.8</v>
-          </cell>
-          <cell r="C319">
-            <v>43856</v>
-          </cell>
-          <cell r="L319">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="A320">
-            <v>17.600000000000001</v>
-          </cell>
-          <cell r="C320">
-            <v>43857</v>
-          </cell>
-          <cell r="L320">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="A321">
-            <v>2.6</v>
-          </cell>
-          <cell r="C321">
-            <v>43858</v>
-          </cell>
-          <cell r="L321">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="A322">
-            <v>0</v>
-          </cell>
-          <cell r="C322">
-            <v>43859</v>
-          </cell>
-          <cell r="L322">
-            <v>0.98976498234864263</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="A323">
-            <v>2.6</v>
-          </cell>
-          <cell r="C323">
-            <v>43860</v>
-          </cell>
-          <cell r="L323">
-            <v>0.99488249117432137</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="A324">
-            <v>7.6</v>
-          </cell>
-          <cell r="C324">
-            <v>43861</v>
-          </cell>
-          <cell r="L324">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9647,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39AC8AD-71AC-754A-9740-C18BAAF68345}">
   <dimension ref="A1:J326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11866,7 +7930,7 @@
         <v>0.8327818837630947</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:J134" si="5">(MAX(H$2:H$326)-H71)/(MAX(H$2:H$326)-MIN(H$2:H$326))</f>
+        <f t="shared" ref="J71:J131" si="5">(MAX(H$2:H$326)-H71)/(MAX(H$2:H$326)-MIN(H$2:H$326))</f>
         <v>0.78690040963749275</v>
       </c>
     </row>
